--- a/data/canola_phoma.xlsx
+++ b/data/canola_phoma.xlsx
@@ -20,12 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">trt</t>
   </si>
   <si>
     <t xml:space="preserve">bk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_248</t>
   </si>
   <si>
     <t xml:space="preserve">sev_cank</t>
@@ -165,7 +186,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -181,29 +202,29 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>248</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
